--- a/Lab10/Lab10 Mon.xlsx
+++ b/Lab10/Lab10 Mon.xlsx
@@ -398,13 +398,19 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -422,22 +428,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -455,6 +455,125 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>177598</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>199604</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="809625" y="4044748"/>
+          <a:ext cx="3571875" cy="2422306"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>168890</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>2180623</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>142449</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4438650" y="4036040"/>
+          <a:ext cx="3637948" cy="2573884"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>2295524</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>53670</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1151905</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>18639</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8191499" y="3920820"/>
+          <a:ext cx="3866531" cy="2565294"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -723,7 +842,7 @@
   <dimension ref="B2:L35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -742,31 +861,31 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="I2" s="20" t="s">
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="I2" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14" t="s">
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
       <c r="I3" s="1" t="s">
         <v>12</v>
       </c>
@@ -781,18 +900,18 @@
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="14" t="str">
+      <c r="B4" s="24" t="str">
         <f ca="1">IF(RAND()&gt;0.5,"First","Second")</f>
         <v>Second</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14" t="str">
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24" t="str">
         <f ca="1">IF(B4="First","Second","First")</f>
         <v>First</v>
       </c>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
       <c r="I4" s="6" t="s">
         <v>15</v>
       </c>
@@ -827,14 +946,14 @@
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
       <c r="I6" s="6" t="s">
         <v>9</v>
       </c>
@@ -852,59 +971,59 @@
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14" t="s">
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="I9" s="15" t="s">
+      <c r="I9" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="I10" s="18" t="s">
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="I10" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14" t="s">
+      <c r="D11" s="24"/>
+      <c r="E11" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="14"/>
+      <c r="F11" s="24"/>
       <c r="G11" s="3" t="s">
         <v>25</v>
       </c>
@@ -920,14 +1039,14 @@
       <c r="B12" s="3">
         <v>1</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="24">
         <v>9</v>
       </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14">
+      <c r="D12" s="24"/>
+      <c r="E12" s="24">
         <v>5</v>
       </c>
-      <c r="F12" s="14"/>
+      <c r="F12" s="24"/>
       <c r="G12" s="4">
         <f>C12-E12</f>
         <v>4</v>
@@ -948,16 +1067,16 @@
       <c r="B13" s="3">
         <v>2</v>
       </c>
-      <c r="C13" s="14">
+      <c r="C13" s="24">
         <v>24</v>
       </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14">
+      <c r="D13" s="24"/>
+      <c r="E13" s="24">
         <v>16</v>
       </c>
-      <c r="F13" s="14"/>
+      <c r="F13" s="24"/>
       <c r="G13" s="4">
-        <f t="shared" ref="G13:G35" si="1">C13-E13</f>
+        <f t="shared" ref="G13:G25" si="1">C13-E13</f>
         <v>8</v>
       </c>
       <c r="J13" s="2" t="s">
@@ -968,14 +1087,14 @@
       <c r="B14" s="3">
         <v>3</v>
       </c>
-      <c r="C14" s="14">
+      <c r="C14" s="24">
         <v>12</v>
       </c>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14">
+      <c r="D14" s="24"/>
+      <c r="E14" s="24">
         <v>6</v>
       </c>
-      <c r="F14" s="14"/>
+      <c r="F14" s="24"/>
       <c r="G14" s="4">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -985,36 +1104,36 @@
       <c r="B15" s="3">
         <v>4</v>
       </c>
-      <c r="C15" s="14">
+      <c r="C15" s="24">
         <v>7</v>
       </c>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14">
+      <c r="D15" s="24"/>
+      <c r="E15" s="24">
         <v>3</v>
       </c>
-      <c r="F15" s="14"/>
+      <c r="F15" s="24"/>
       <c r="G15" s="4">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="I15" s="18" t="s">
+      <c r="I15" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <v>5</v>
       </c>
-      <c r="C16" s="14">
+      <c r="C16" s="24">
         <v>11</v>
       </c>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14">
+      <c r="D16" s="24"/>
+      <c r="E16" s="24">
         <v>17</v>
       </c>
-      <c r="F16" s="14"/>
+      <c r="F16" s="24"/>
       <c r="G16" s="4">
         <f t="shared" si="1"/>
         <v>-6</v>
@@ -1036,30 +1155,30 @@
       <c r="B17" s="3">
         <v>6</v>
       </c>
-      <c r="C17" s="14">
+      <c r="C17" s="24">
         <v>13</v>
       </c>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14">
+      <c r="D17" s="24"/>
+      <c r="E17" s="24">
         <v>6</v>
       </c>
-      <c r="F17" s="14"/>
+      <c r="F17" s="24"/>
       <c r="G17" s="4">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="I17" s="21" t="s">
+      <c r="I17" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="J17" s="27">
+      <c r="J17" s="25">
         <f>((J5-J4)-0)/SQRT((K4^2+K5^2)/2)</f>
         <v>0.35763580259635375</v>
       </c>
-      <c r="K17" s="14">
+      <c r="K17" s="24">
         <f>1-(_xlfn.T.DIST(J17,14-1,TRUE)-0.5)*2</f>
         <v>0.72635533209968073</v>
       </c>
-      <c r="L17" s="17" t="s">
+      <c r="L17" s="19" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1067,35 +1186,35 @@
       <c r="B18" s="3">
         <v>7</v>
       </c>
-      <c r="C18" s="14">
+      <c r="C18" s="24">
         <v>22</v>
       </c>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14">
+      <c r="D18" s="24"/>
+      <c r="E18" s="24">
         <v>10</v>
       </c>
-      <c r="F18" s="14"/>
+      <c r="F18" s="24"/>
       <c r="G18" s="4">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="17"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="19"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B19" s="3">
         <v>8</v>
       </c>
-      <c r="C19" s="14">
+      <c r="C19" s="24">
         <v>10</v>
       </c>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14">
+      <c r="D19" s="24"/>
+      <c r="E19" s="24">
         <v>15</v>
       </c>
-      <c r="F19" s="14"/>
+      <c r="F19" s="24"/>
       <c r="G19" s="4">
         <f t="shared" si="1"/>
         <v>-5</v>
@@ -1112,14 +1231,14 @@
       <c r="B20" s="3">
         <v>9</v>
       </c>
-      <c r="C20" s="14">
+      <c r="C20" s="24">
         <v>9</v>
       </c>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14">
+      <c r="D20" s="24"/>
+      <c r="E20" s="24">
         <v>11</v>
       </c>
-      <c r="F20" s="14"/>
+      <c r="F20" s="24"/>
       <c r="G20" s="4">
         <f t="shared" si="1"/>
         <v>-2</v>
@@ -1129,37 +1248,37 @@
       <c r="B21" s="3">
         <v>10</v>
       </c>
-      <c r="C21" s="14">
+      <c r="C21" s="24">
         <v>11</v>
       </c>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14">
+      <c r="D21" s="24"/>
+      <c r="E21" s="24">
         <v>13</v>
       </c>
-      <c r="F21" s="14"/>
+      <c r="F21" s="24"/>
       <c r="G21" s="4">
         <f t="shared" si="1"/>
         <v>-2</v>
       </c>
-      <c r="I21" s="22" t="s">
+      <c r="I21" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="J21" s="23"/>
-      <c r="K21" s="23"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
       <c r="L21" s="11"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
         <v>11</v>
       </c>
-      <c r="C22" s="14">
+      <c r="C22" s="24">
         <v>11</v>
       </c>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14">
+      <c r="D22" s="24"/>
+      <c r="E22" s="24">
         <v>18</v>
       </c>
-      <c r="F22" s="14"/>
+      <c r="F22" s="24"/>
       <c r="G22" s="4">
         <f t="shared" si="1"/>
         <v>-7</v>
@@ -1181,58 +1300,58 @@
       <c r="B23" s="3">
         <v>12</v>
       </c>
-      <c r="C23" s="14">
+      <c r="C23" s="24">
         <v>23</v>
       </c>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14">
+      <c r="D23" s="24"/>
+      <c r="E23" s="24">
         <v>16</v>
       </c>
-      <c r="F23" s="14"/>
+      <c r="F23" s="24"/>
       <c r="G23" s="4">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="I23" s="24" t="s">
+      <c r="I23" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="J23" s="26"/>
-      <c r="K23" s="25"/>
-      <c r="L23" s="25"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B24" s="3">
         <v>13</v>
       </c>
-      <c r="C24" s="14">
+      <c r="C24" s="24">
         <v>19</v>
       </c>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14">
+      <c r="D24" s="24"/>
+      <c r="E24" s="24">
         <v>12</v>
       </c>
-      <c r="F24" s="14"/>
+      <c r="F24" s="24"/>
       <c r="G24" s="4">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="I24" s="25"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="25"/>
-      <c r="L24" s="25"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="17"/>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B25" s="3">
         <v>14</v>
       </c>
-      <c r="C25" s="14">
+      <c r="C25" s="24">
         <v>10</v>
       </c>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14">
+      <c r="D25" s="24"/>
+      <c r="E25" s="24">
         <v>16</v>
       </c>
-      <c r="F25" s="14"/>
+      <c r="F25" s="24"/>
       <c r="G25" s="4">
         <f t="shared" si="1"/>
         <v>-6</v>
@@ -1242,122 +1361,144 @@
       <c r="B26" s="3">
         <v>15</v>
       </c>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
       <c r="G26" s="4"/>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B27" s="3">
         <v>16</v>
       </c>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
       <c r="G27" s="4"/>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B28" s="3">
         <v>17</v>
       </c>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
       <c r="G28" s="4"/>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B29" s="3">
         <v>18</v>
       </c>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
       <c r="G29" s="4"/>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B30" s="3">
         <v>19</v>
       </c>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
       <c r="G30" s="4"/>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B31" s="3">
         <v>20</v>
       </c>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
       <c r="G31" s="4"/>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B32" s="3">
         <v>21</v>
       </c>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
       <c r="G32" s="4"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="3">
         <v>22</v>
       </c>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
       <c r="G33" s="4"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="3">
         <v>23</v>
       </c>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
       <c r="G34" s="4"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="3">
         <v>24</v>
       </c>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
       <c r="G35" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
     <mergeCell ref="B10:G10"/>
     <mergeCell ref="C35:D35"/>
     <mergeCell ref="E35:F35"/>
@@ -1374,48 +1515,27 @@
     <mergeCell ref="E34:F34"/>
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="E29:F29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="L23:L24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>